--- a/model/Outputs/8. Fixed RE/No PV/Output Files/10/Output_4_40.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV/Output Files/10/Output_4_40.xlsx
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>365110.1010175566</v>
+        <v>1122463034.092758</v>
       </c>
     </row>
   </sheetData>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
